--- a/IdealGasLawTemp.xlsx
+++ b/IdealGasLawTemp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xaos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xaos\Desktop\General Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A3439A-4F5B-4048-90E1-8349263E02F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A1895-5BB7-4DD5-ACE2-7FD183187CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IdealGasLawTemp.xlsx
+++ b/IdealGasLawTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xaos\Desktop\General Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A1895-5BB7-4DD5-ACE2-7FD183187CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262D4EB-DEB1-4E6E-BE9D-AC8731A3B6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Temperature Inside (K)</t>
+    <t>Temperature_Inside_K</t>
   </si>
   <si>
-    <t>Temperature Outside (K)</t>
+    <t>Temperature_Outside_K</t>
   </si>
 </sst>
 </file>
@@ -360,13 +360,13 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
